--- a/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Desktop\production_recipe_management_tool_v1.1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36484EA-F624-44DA-81F0-27E40AFBD074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7CFFE3-70E0-463B-A0ED-4827C22C0CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="144">
   <si>
     <t>Product</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>Chicken Curcase</t>
+  </si>
+  <si>
+    <t>Butter Oil (600 Butter + 100 Oil)</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -542,6 +545,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C28"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -1068,31 +1074,31 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="3">
-        <v>200</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="A13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3">
-        <v>0.08</v>
+        <v>200</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -1103,13 +1109,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="3">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -1120,13 +1126,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C16" s="3">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -1137,13 +1143,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C17" s="3">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -1154,13 +1160,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="3">
-        <v>0.22500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -1171,13 +1177,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C19" s="3">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -1188,13 +1194,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C20" s="3">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -1205,13 +1211,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="3">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -1222,13 +1228,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -1239,13 +1245,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -1256,13 +1262,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C24" s="3">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -1273,13 +1279,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="3">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -1290,32 +1296,32 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="3">
         <f>220/1000</f>
         <v>0.22</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.12</v>
-      </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
@@ -1325,13 +1331,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C28" s="3">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -1342,13 +1348,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C29" s="3">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -1359,13 +1365,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="3">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -1376,13 +1382,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="3">
-        <v>210</v>
+        <v>0.75</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -1393,13 +1399,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C32" s="3">
-        <v>0.8</v>
+        <v>210</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -1410,13 +1416,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C33" s="3">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -1427,13 +1433,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C34" s="3">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -1444,13 +1450,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C35" s="3">
-        <v>0.15</v>
+        <v>0.7</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -1461,13 +1467,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C36" s="3">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -1478,13 +1484,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C37" s="3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -1495,13 +1501,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.2</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -1512,13 +1518,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="3">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
@@ -1529,13 +1535,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C40" s="3">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -1546,13 +1552,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C41" s="3">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -1563,13 +1569,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C42" s="3">
-        <v>7.4999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -1580,13 +1586,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="3">
-        <v>0.15</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -1597,13 +1603,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="3">
-        <v>7</v>
+        <v>0.15</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -1614,13 +1620,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C45" s="3">
-        <v>0.33333333333333331</v>
+        <v>7</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -1631,13 +1637,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C46" s="3">
-        <v>0.72</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -1648,13 +1654,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="3">
-        <v>0.15</v>
+        <v>0.72</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -1665,13 +1671,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="3">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -1682,13 +1688,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="3">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -1699,13 +1705,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="3">
-        <v>0.27200000000000002</v>
+        <v>0.05</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -1716,13 +1722,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -1733,13 +1739,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C52" s="3">
-        <v>1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
@@ -1750,13 +1756,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" s="3">
-        <v>1100</v>
+        <v>1</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -1767,13 +1773,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="3">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
@@ -1784,13 +1790,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" s="3">
-        <v>0.6</v>
+        <v>1800</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
@@ -1801,13 +1807,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C56" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -1818,13 +1824,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C57" s="3">
-        <v>1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
@@ -1835,13 +1841,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
@@ -1852,13 +1858,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" s="3">
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
@@ -1869,13 +1875,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C60" s="3">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
@@ -1886,13 +1892,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="3">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="D61" s="3">
         <v>0</v>
@@ -1903,13 +1909,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C62" s="3">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
@@ -1920,50 +1926,50 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" s="4">
+      <c r="B64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="4">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="D63" s="3">
-        <v>0</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="3">
+      <c r="B65" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="3">
         <f>98/50</f>
         <v>1.96</v>
       </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0.15</v>
-      </c>
       <c r="D65" s="3">
         <v>0</v>
       </c>
@@ -1973,13 +1979,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C66" s="3">
-        <v>1.2</v>
+        <v>0.15</v>
       </c>
       <c r="D66" s="3">
         <v>0</v>
@@ -1990,13 +1996,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C67" s="3">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="D67" s="3">
         <v>0</v>
@@ -2007,13 +2013,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
@@ -2024,13 +2030,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C69" s="3">
-        <v>1.22</v>
+        <v>0.3</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -2041,13 +2047,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C70" s="3">
-        <v>0.1176470588235294</v>
+        <v>1.22</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
@@ -2058,13 +2064,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C71" s="3">
-        <v>0.96</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D71" s="3">
         <v>0</v>
@@ -2075,13 +2081,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" s="3">
-        <v>5</v>
+        <v>0.96</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
@@ -2092,13 +2098,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C73" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -2109,13 +2115,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C74" s="3">
-        <v>369</v>
+        <v>10</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
@@ -2126,13 +2132,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C75" s="3">
-        <v>0.2</v>
+        <v>369</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -2143,13 +2149,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C76" s="3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D76" s="3">
         <v>0</v>
@@ -2160,13 +2166,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C77" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D77" s="3">
         <v>0</v>
@@ -2177,32 +2183,32 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="3">
+        <v>14</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="3">
+      <c r="B79" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="3">
         <f>60/72</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D78" s="3">
-        <v>0</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C79" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
       <c r="D79" s="3">
         <v>0</v>
       </c>
@@ -2212,13 +2218,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C80" s="3">
-        <v>1.1000000000000001</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D80" s="3">
         <v>0</v>
@@ -2229,13 +2235,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C81" s="3">
-        <v>200</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D81" s="3">
         <v>0</v>
@@ -2246,13 +2252,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C82" s="3">
-        <v>0.12</v>
+        <v>200</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
@@ -2263,13 +2269,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C83" s="3">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
@@ -2280,13 +2286,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" s="3">
-        <v>35</v>
+        <v>0.15</v>
       </c>
       <c r="D84" s="3">
         <v>0</v>
@@ -2297,13 +2303,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C85" s="3">
-        <v>0.15</v>
+        <v>35</v>
       </c>
       <c r="D85" s="3">
         <v>0</v>
@@ -2314,13 +2320,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" s="3">
-        <v>300</v>
+        <v>0.15</v>
       </c>
       <c r="D86" s="3">
         <v>0</v>
@@ -2331,13 +2337,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C87" s="3">
-        <v>0.21</v>
+        <v>300</v>
       </c>
       <c r="D87" s="3">
         <v>0</v>
@@ -2348,13 +2354,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C88" s="3">
-        <v>0.1647058823529412</v>
+        <v>0.21</v>
       </c>
       <c r="D88" s="3">
         <v>0</v>
@@ -2365,13 +2371,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C89" s="3">
-        <v>0.3</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="D89" s="3">
         <v>0</v>
@@ -2382,50 +2388,50 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="3">
+      <c r="B91" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="3">
         <f>25/100</f>
         <v>0.25</v>
       </c>
-      <c r="D90" s="3">
-        <v>0</v>
-      </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C91" s="3">
+      <c r="B92" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="3">
         <f>850/1000</f>
         <v>0.85</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" s="3">
-        <v>0.7</v>
-      </c>
       <c r="D92" s="3">
         <v>0</v>
       </c>
@@ -2435,13 +2441,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C93" s="3">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="D93" s="3">
         <v>0</v>
@@ -2452,13 +2458,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C94" s="3">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
@@ -2469,32 +2475,32 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C95" s="3">
+      <c r="B96" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="3">
         <f>125/50</f>
         <v>2.5</v>
       </c>
-      <c r="D95" s="3">
-        <v>0</v>
-      </c>
-      <c r="E95" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" s="3">
-        <v>0.1176470588235294</v>
-      </c>
       <c r="D96" s="3">
         <v>0</v>
       </c>
@@ -2504,32 +2510,32 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" s="3">
+      <c r="B98" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="3">
         <f>27/50</f>
         <v>0.54</v>
       </c>
-      <c r="D97" s="3">
-        <v>0</v>
-      </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C98" s="3">
-        <v>0.26</v>
-      </c>
       <c r="D98" s="3">
         <v>0</v>
       </c>
@@ -2539,13 +2545,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C99" s="3">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="D99" s="3">
         <v>0</v>
@@ -2556,13 +2562,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C100" s="3">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
@@ -2573,13 +2579,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C101" s="3">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
@@ -2590,13 +2596,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C102" s="3">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="D102" s="3">
         <v>0</v>
@@ -2607,13 +2613,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C103" s="3">
-        <v>200</v>
+        <v>0.3</v>
       </c>
       <c r="D103" s="3">
         <v>0</v>
@@ -2624,13 +2630,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C104" s="3">
-        <v>0.4</v>
+        <v>200</v>
       </c>
       <c r="D104" s="3">
         <v>0</v>
@@ -2641,13 +2647,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C105" s="3">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="D105" s="3">
         <v>0</v>
@@ -2658,13 +2664,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C106" s="3">
-        <v>0.7</v>
+        <v>0.05</v>
       </c>
       <c r="D106" s="3">
         <v>0</v>
@@ -2675,13 +2681,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C107" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D107" s="3">
         <v>0</v>
@@ -2692,13 +2698,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C108" s="3">
-        <v>0.14117647058823529</v>
+        <v>0.3</v>
       </c>
       <c r="D108" s="3">
         <v>0</v>
@@ -2709,32 +2715,32 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.14117647058823529</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" s="3">
+      <c r="B110" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" s="3">
         <f>130/50</f>
         <v>2.6</v>
       </c>
-      <c r="D109" s="3">
-        <v>0</v>
-      </c>
-      <c r="E109" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C110" s="3">
-        <v>2.7E-2</v>
-      </c>
       <c r="D110" s="3">
         <v>0</v>
       </c>
@@ -2744,13 +2750,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C111" s="3">
-        <v>8</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D111" s="3">
         <v>0</v>
@@ -2761,13 +2767,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C112" s="3">
-        <v>0.16</v>
+        <v>8</v>
       </c>
       <c r="D112" s="3">
         <v>0</v>
@@ -2778,13 +2784,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C113" s="3">
-        <v>15</v>
+        <v>0.16</v>
       </c>
       <c r="D113" s="3">
         <v>0</v>
@@ -2795,13 +2801,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C114" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D114" s="3">
         <v>0</v>
@@ -2812,13 +2818,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C115" s="3">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="D115" s="3">
         <v>0</v>
@@ -2829,13 +2835,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C116" s="3">
-        <v>3.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D116" s="3">
         <v>0</v>
@@ -2846,13 +2852,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117" s="3">
-        <v>20</v>
+        <v>3.5</v>
       </c>
       <c r="D117" s="3">
         <v>0</v>
@@ -2863,13 +2869,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118" s="3">
-        <v>0.14941176470588241</v>
+        <v>20</v>
       </c>
       <c r="D118" s="3">
         <v>0</v>
@@ -2880,13 +2886,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C119" s="3">
-        <v>0.12</v>
+        <v>0.14941176470588241</v>
       </c>
       <c r="D119" s="3">
         <v>0</v>
@@ -2897,13 +2903,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C120" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D120" s="3">
         <v>0</v>
@@ -2914,32 +2920,32 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C122" s="3">
         <f>70/30</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="D121" s="3">
-        <v>0</v>
-      </c>
-      <c r="E121" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C122" s="3">
-        <v>0.7</v>
-      </c>
       <c r="D122" s="3">
         <v>0</v>
       </c>
@@ -2949,13 +2955,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C123" s="3">
-        <v>200</v>
+        <v>0.7</v>
       </c>
       <c r="D123" s="3">
         <v>0</v>
@@ -2966,47 +2972,47 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C124" s="3">
+        <v>200</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C124" s="3">
+      <c r="B125" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C125" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D124" s="3">
-        <v>0</v>
-      </c>
-      <c r="E124" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C125" s="3">
+      <c r="B126" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C126" s="3">
         <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="D125" s="3">
-        <v>0</v>
-      </c>
-      <c r="E125" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C126" s="3">
-        <v>18</v>
       </c>
       <c r="D126" s="3">
         <v>0</v>
@@ -3017,13 +3023,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C127" s="3">
-        <v>0.05</v>
+        <v>18</v>
       </c>
       <c r="D127" s="3">
         <v>0</v>
@@ -3034,13 +3040,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C128" s="3">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D128" s="3">
         <v>0</v>
@@ -3051,13 +3057,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C129" s="3">
-        <v>0.1176470588235294</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D129" s="3">
         <v>0</v>
@@ -3068,13 +3074,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C130" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D130" s="3">
         <v>0</v>
@@ -3085,13 +3091,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C131" s="3">
-        <v>0.4</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D131" s="3">
         <v>0</v>
@@ -3102,13 +3108,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C132" s="3">
-        <v>250</v>
+        <v>0.4</v>
       </c>
       <c r="D132" s="3">
         <v>0</v>
@@ -3119,13 +3125,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C133" s="3">
-        <v>0.12</v>
+        <v>250</v>
       </c>
       <c r="D133" s="3">
         <v>0</v>
@@ -3136,13 +3142,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C134" s="3">
-        <v>4.6153846153846163E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D134" s="3">
         <v>0</v>
@@ -3153,13 +3159,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C135" s="3">
-        <v>1E-3</v>
+        <v>4.6153846153846163E-2</v>
       </c>
       <c r="D135" s="3">
         <v>0</v>
@@ -3170,13 +3176,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C136" s="3">
-        <v>6.3E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="D136" s="3">
         <v>0</v>
@@ -3187,24 +3193,40 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C137" s="3">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C137" s="3">
+      <c r="B138" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C138" s="3">
         <f>40/100</f>
         <v>0.4</v>
       </c>
-      <c r="D137" s="3">
-        <v>0</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E138" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E138">
     <sortCondition ref="A1:A138"/>
   </sortState>

--- a/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6647F62C-818C-4FC2-B511-64951FAD3908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D10E92-C7B5-4F4A-8A23-8368B7D691A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$152</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="158">
   <si>
     <t>Product</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>Milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lettuce Iceberg </t>
   </si>
 </sst>
 </file>
@@ -913,19 +916,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
@@ -2242,14 +2245,15 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>140</v>
+      <c r="A78" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="2">
-        <v>10</v>
+        <v>117</v>
+      </c>
+      <c r="C78" s="5">
+        <f>300/1000</f>
+        <v>0.3</v>
       </c>
       <c r="D78" s="2">
         <v>0</v>
@@ -2260,13 +2264,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C79" s="2">
-        <v>369</v>
+        <v>10</v>
       </c>
       <c r="D79" s="2">
         <v>0</v>
@@ -2277,13 +2281,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C80" s="2">
-        <v>0.2</v>
+        <v>369</v>
       </c>
       <c r="D80" s="2">
         <v>0</v>
@@ -2294,13 +2298,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="2">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D81" s="2">
         <v>0</v>
@@ -2311,13 +2315,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D82" s="2">
         <v>0</v>
@@ -2328,32 +2332,32 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="2">
+        <v>14</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="2">
+      <c r="B84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="2">
         <f>60/72</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C84" s="2">
-        <v>4.1000000000000002E-2</v>
-      </c>
       <c r="D84" s="2">
         <v>0</v>
       </c>
@@ -2363,13 +2367,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C85" s="2">
-        <v>1.1000000000000001</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D85" s="2">
         <v>0</v>
@@ -2380,47 +2384,47 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C87" s="2">
         <v>200</v>
       </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C87" s="5">
+      <c r="B88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="5">
         <v>0.5</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C88" s="2">
-        <v>0.12</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -2431,47 +2435,47 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C89" s="2">
+      <c r="B90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="2">
         <v>0.15</v>
       </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="5">
+      <c r="B91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="5">
         <v>0.7142857142857143</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C91" s="2">
-        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D91" s="2">
         <v>0</v>
@@ -2482,13 +2486,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C92" s="2">
-        <v>35</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D92" s="2">
         <v>0</v>
@@ -2499,13 +2503,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C93" s="2">
-        <v>0.15</v>
+        <v>35</v>
       </c>
       <c r="D93" s="2">
         <v>0</v>
@@ -2516,13 +2520,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2">
-        <v>300</v>
+        <v>0.15</v>
       </c>
       <c r="D94" s="2">
         <v>0</v>
@@ -2533,13 +2537,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C95" s="2">
-        <v>0.21</v>
+        <v>300</v>
       </c>
       <c r="D95" s="2">
         <v>0</v>
@@ -2550,13 +2554,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C96" s="2">
-        <v>0.1647058823529412</v>
+        <v>0.21</v>
       </c>
       <c r="D96" s="2">
         <v>0</v>
@@ -2567,13 +2571,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C97" s="2">
-        <v>0.3</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="D97" s="2">
         <v>0</v>
@@ -2584,50 +2588,50 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C98" s="2">
+      <c r="B99" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="2">
         <f>25/100</f>
         <v>0.25</v>
       </c>
-      <c r="D98" s="2">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="2">
+      <c r="B100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="2">
         <f>850/1000</f>
         <v>0.85</v>
       </c>
-      <c r="D99" s="2">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" s="2">
-        <v>0.7</v>
-      </c>
       <c r="D100" s="2">
         <v>0</v>
       </c>
@@ -2637,13 +2641,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C101" s="2">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="D101" s="2">
         <v>0</v>
@@ -2654,13 +2658,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C102" s="2">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D102" s="2">
         <v>0</v>
@@ -2671,32 +2675,32 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C103" s="2">
+      <c r="B104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="2">
         <f>125/50</f>
         <v>2.5</v>
       </c>
-      <c r="D103" s="2">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" s="2">
-        <v>0.1176470588235294</v>
-      </c>
       <c r="D104" s="2">
         <v>0</v>
       </c>
@@ -2706,32 +2710,32 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C105" s="2">
+      <c r="B106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="2">
         <f>27/50</f>
         <v>0.54</v>
       </c>
-      <c r="D105" s="2">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C106" s="2">
-        <v>0.26</v>
-      </c>
       <c r="D106" s="2">
         <v>0</v>
       </c>
@@ -2741,13 +2745,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C107" s="2">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="D107" s="2">
         <v>0</v>
@@ -2758,13 +2762,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C108" s="2">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="D108" s="2">
         <v>0</v>
@@ -2775,13 +2779,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D109" s="2">
         <v>0</v>
@@ -2792,13 +2796,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="D110" s="2">
         <v>0</v>
@@ -2809,13 +2813,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2">
-        <v>200</v>
+        <v>0.3</v>
       </c>
       <c r="D111" s="2">
         <v>0</v>
@@ -2826,13 +2830,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C112" s="2">
-        <v>0.4</v>
+        <v>200</v>
       </c>
       <c r="D112" s="2">
         <v>0</v>
@@ -2843,13 +2847,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C113" s="2">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
       <c r="D113" s="2">
         <v>0</v>
@@ -2860,13 +2864,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C114" s="2">
-        <v>0.7</v>
+        <v>0.03</v>
       </c>
       <c r="D114" s="2">
         <v>0</v>
@@ -2877,13 +2881,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C115" s="2">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D115" s="2">
         <v>0</v>
@@ -2894,30 +2898,30 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" s="2">
+      <c r="B117" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="2">
         <v>0.14117647058823529</v>
-      </c>
-      <c r="D116" s="2">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C117" s="5">
-        <v>0.11</v>
       </c>
       <c r="D117" s="2">
         <v>0</v>
@@ -2928,13 +2932,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C118" s="5">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="D118" s="2">
         <v>0</v>
@@ -2945,13 +2949,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C119" s="5">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="D119" s="2">
         <v>0</v>
@@ -2962,49 +2966,49 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C120" s="5">
+      <c r="B121" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" s="5">
         <v>0.7142857142857143</v>
       </c>
-      <c r="D120" s="2">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C121" s="2">
+      <c r="B122" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" s="2">
         <f>130/50</f>
         <v>2.6</v>
       </c>
-      <c r="D121" s="2">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C122" s="2">
-        <v>2.7E-2</v>
-      </c>
       <c r="D122" s="2">
         <v>0</v>
       </c>
@@ -3014,13 +3018,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C123" s="2">
-        <v>8</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D123" s="2">
         <v>0</v>
@@ -3031,13 +3035,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C124" s="2">
-        <v>0.16</v>
+        <v>8</v>
       </c>
       <c r="D124" s="2">
         <v>0</v>
@@ -3048,13 +3052,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C125" s="2">
-        <v>15</v>
+        <v>0.16</v>
       </c>
       <c r="D125" s="2">
         <v>0</v>
@@ -3065,13 +3069,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C126" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2">
         <v>0</v>
@@ -3082,13 +3086,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C127" s="2">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="D127" s="2">
         <v>0</v>
@@ -3099,13 +3103,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C128" s="2">
-        <v>3.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D128" s="2">
         <v>0</v>
@@ -3116,13 +3120,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C129" s="2">
-        <v>20</v>
+        <v>3.5</v>
       </c>
       <c r="D129" s="2">
         <v>0</v>
@@ -3133,13 +3137,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C130" s="2">
-        <v>0.14941176470588241</v>
+        <v>20</v>
       </c>
       <c r="D130" s="2">
         <v>0</v>
@@ -3150,13 +3154,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C131" s="2">
-        <v>0.12</v>
+        <v>0.14941176470588241</v>
       </c>
       <c r="D131" s="2">
         <v>0</v>
@@ -3167,13 +3171,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C132" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D132" s="2">
         <v>0</v>
@@ -3184,32 +3188,32 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C133" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C134" s="2">
         <f>70/30</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-      <c r="E133" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C134" s="2">
-        <v>0.7</v>
-      </c>
       <c r="D134" s="2">
         <v>0</v>
       </c>
@@ -3219,13 +3223,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C135" s="2">
-        <v>200</v>
+        <v>0.7</v>
       </c>
       <c r="D135" s="2">
         <v>0</v>
@@ -3236,47 +3240,47 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C136" s="2">
+        <v>200</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C136" s="2">
+      <c r="B137" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C137" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C137" s="2">
+      <c r="B138" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C138" s="2">
         <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="D137" s="2">
-        <v>0</v>
-      </c>
-      <c r="E137" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C138" s="2">
-        <v>18</v>
       </c>
       <c r="D138" s="2">
         <v>0</v>
@@ -3287,13 +3291,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C139" s="2">
-        <v>0.05</v>
+        <v>18</v>
       </c>
       <c r="D139" s="2">
         <v>0</v>
@@ -3304,13 +3308,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C140" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D140" s="2">
         <v>0</v>
@@ -3321,13 +3325,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C141" s="2">
-        <v>0.1176470588235294</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D141" s="2">
         <v>0</v>
@@ -3338,13 +3342,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C142" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D142" s="2">
         <v>0</v>
@@ -3355,13 +3359,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C143" s="2">
-        <v>0.4</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D143" s="2">
         <v>0</v>
@@ -3372,13 +3376,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C144" s="2">
-        <v>250</v>
+        <v>0.4</v>
       </c>
       <c r="D144" s="2">
         <v>0</v>
@@ -3389,13 +3393,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C145" s="8">
-        <v>0.12</v>
+        <v>250</v>
       </c>
       <c r="D145" s="6">
         <v>0</v>
@@ -3406,13 +3410,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C146" s="2">
-        <v>4.6153846153846163E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D146" s="2">
         <v>0</v>
@@ -3423,47 +3427,47 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C147" s="2">
+        <v>4.6153846153846163E-2</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+      <c r="E147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C147" s="2">
+      <c r="B148" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C148" s="2">
         <v>1E-3</v>
       </c>
-      <c r="D147" s="2">
-        <v>0</v>
-      </c>
-      <c r="E147" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+      <c r="D148" s="2">
+        <v>0</v>
+      </c>
+      <c r="E148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C148" s="5">
+      <c r="B149" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C149" s="5">
         <v>1.2</v>
-      </c>
-      <c r="D148" s="2">
-        <v>0</v>
-      </c>
-      <c r="E148" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C149" s="2">
-        <v>6.3E-2</v>
       </c>
       <c r="D149" s="2">
         <v>0</v>
@@ -3474,42 +3478,59 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C150" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+      <c r="E150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C150" s="2">
+      <c r="B151" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C151" s="2">
         <f>40/100</f>
         <v>0.4</v>
       </c>
-      <c r="D150" s="2">
-        <v>0</v>
-      </c>
-      <c r="E150" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C151" s="5">
+      <c r="B152" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C152" s="5">
         <v>2.1071428571428572</v>
       </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="2">
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E151">
-    <sortCondition ref="A1:A151"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E152">
+    <sortCondition ref="A1:A152"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db716023529416d8/Documents/GitHub/production_recipe_management_tool/production_recipe_management_tool_v1.1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D10E92-C7B5-4F4A-8A23-8368B7D691A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{71D10E92-C7B5-4F4A-8A23-8368B7D691A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29601E1E-397D-41F6-BA0B-479FF44480FC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8130" yWindow="3790" windowWidth="11750" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$156</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="162">
   <si>
     <t>Product</t>
   </si>
@@ -508,6 +508,18 @@
   </si>
   <si>
     <t xml:space="preserve">Lettuce Iceberg </t>
+  </si>
+  <si>
+    <t>Potato Starch</t>
+  </si>
+  <si>
+    <t>Wheat Starch</t>
+  </si>
+  <si>
+    <t>Chicken Wings</t>
+  </si>
+  <si>
+    <t>Chicken Leg</t>
   </si>
 </sst>
 </file>
@@ -609,7 +621,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -627,6 +639,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -916,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1038,7 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="5">
         <v>4.3499999999999996</v>
@@ -1410,14 +1426,15 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
+      <c r="A29" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="2">
-        <v>0.12</v>
+      <c r="C29" s="5">
+        <f>260/1000</f>
+        <v>0.26</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -1428,13 +1445,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="2">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -1445,13 +1462,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C31" s="2">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -1461,14 +1478,15 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
+      <c r="A32" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="2">
-        <v>0.75</v>
+      <c r="C32" s="5">
+        <f>150/1000</f>
+        <v>0.15</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -1479,13 +1497,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" s="2">
-        <v>210</v>
+        <v>0.35</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -1496,13 +1514,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
@@ -1513,13 +1531,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="2">
-        <v>0.25</v>
+        <v>210</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -1530,13 +1548,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
@@ -1547,13 +1565,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" s="2">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -1564,13 +1582,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -1581,13 +1599,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -1598,13 +1616,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C40" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.5</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -1614,14 +1632,14 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>146</v>
+      <c r="A41" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="5">
-        <v>1.55</v>
+      <c r="C41" s="2">
+        <v>0.2</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
@@ -1632,47 +1650,47 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="B44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="2">
         <v>0.1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0.12</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -1683,13 +1701,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
@@ -1699,14 +1717,14 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>39</v>
+      <c r="A46" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="2">
-        <v>7.4999999999999997E-2</v>
+      <c r="C46" s="5">
+        <v>0.12</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
@@ -1717,13 +1735,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="2">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2">
         <v>0</v>
@@ -1734,13 +1752,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C48" s="2">
-        <v>7</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
@@ -1751,13 +1769,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.15</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -1768,13 +1786,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C50" s="2">
-        <v>0.72</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -1785,13 +1803,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="2">
-        <v>0.15</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
@@ -1802,13 +1820,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C52" s="2">
-        <v>0.16</v>
+        <v>0.72</v>
       </c>
       <c r="D52" s="2">
         <v>0</v>
@@ -1819,13 +1837,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C53" s="2">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D53" s="2">
         <v>0</v>
@@ -1836,13 +1854,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C54" s="2">
-        <v>0.27200000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
@@ -1853,13 +1871,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C55" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
@@ -1870,13 +1888,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C56" s="2">
-        <v>1</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
@@ -1887,13 +1905,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2">
-        <v>1100</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D57" s="2">
         <v>0</v>
@@ -1904,13 +1922,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="2">
-        <v>1800</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -1921,13 +1939,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" s="2">
-        <v>0.6</v>
+        <v>1100</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
@@ -1938,13 +1956,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2">
-        <v>0.28000000000000003</v>
+        <v>1800</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
@@ -1955,13 +1973,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D61" s="2">
         <v>0</v>
@@ -1972,13 +1990,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2">
-        <v>10</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
@@ -1989,13 +2007,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="2">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
@@ -2006,13 +2024,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C64" s="2">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2">
         <v>0</v>
@@ -2023,13 +2041,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C65" s="2">
-        <v>0.12</v>
+        <v>2.6</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -2040,13 +2058,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C66" s="2">
-        <v>0.15</v>
+        <v>1.2</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
@@ -2057,67 +2075,67 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="3">
+      <c r="B69" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="3">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="D67" s="2">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="2">
+      <c r="B70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="2">
         <f>98/50</f>
         <v>1.96</v>
       </c>
-      <c r="D68" s="2">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1.2</v>
-      </c>
       <c r="D70" s="2">
         <v>0</v>
       </c>
@@ -2127,13 +2145,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C71" s="2">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D71" s="2">
         <v>0</v>
@@ -2144,13 +2162,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="D72" s="2">
         <v>0</v>
@@ -2161,13 +2179,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C73" s="2">
-        <v>1.22</v>
+        <v>0.4</v>
       </c>
       <c r="D73" s="2">
         <v>0</v>
@@ -2178,13 +2196,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C74" s="2">
-        <v>0.1176470588235294</v>
+        <v>0.3</v>
       </c>
       <c r="D74" s="2">
         <v>0</v>
@@ -2195,13 +2213,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C75" s="2">
-        <v>0.96</v>
+        <v>1.22</v>
       </c>
       <c r="D75" s="2">
         <v>0</v>
@@ -2211,14 +2229,14 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>149</v>
+      <c r="A76" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="5">
-        <v>0.13</v>
+      <c r="C76" s="2">
+        <v>0.1176470588235294</v>
       </c>
       <c r="D76" s="2">
         <v>0</v>
@@ -2229,13 +2247,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2">
-        <v>5</v>
+        <v>0.96</v>
       </c>
       <c r="D77" s="2">
         <v>0</v>
@@ -2246,49 +2264,49 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="2">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="5">
+      <c r="B80" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="5">
         <f>300/1000</f>
         <v>0.3</v>
       </c>
-      <c r="D78" s="2">
-        <v>0</v>
-      </c>
-      <c r="E78" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="2">
-        <v>10</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="2">
-        <v>369</v>
-      </c>
       <c r="D80" s="2">
         <v>0</v>
       </c>
@@ -2298,13 +2316,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="D81" s="2">
         <v>0</v>
@@ -2315,13 +2333,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2">
-        <v>2</v>
+        <v>369</v>
       </c>
       <c r="D82" s="2">
         <v>0</v>
@@ -2332,13 +2350,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2">
-        <v>14</v>
+        <v>0.2</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
@@ -2349,49 +2367,49 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="2">
+        <v>14</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C84" s="2">
+      <c r="B86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="2">
         <f>60/72</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D84" s="2">
-        <v>0</v>
-      </c>
-      <c r="E84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="2">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-      <c r="E85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C86" s="2">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="D86" s="2">
         <v>0</v>
       </c>
@@ -2401,13 +2419,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2">
-        <v>200</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D87" s="2">
         <v>0</v>
@@ -2417,14 +2435,14 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>155</v>
+      <c r="A88" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="5">
-        <v>0.5</v>
+      <c r="C88" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -2435,47 +2453,47 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="2">
+        <v>200</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C89" s="2">
+      <c r="B91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="2">
         <v>0.12</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C91" s="5">
-        <v>0.7142857142857143</v>
       </c>
       <c r="D91" s="2">
         <v>0</v>
@@ -2486,13 +2504,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C92" s="2">
-        <v>5.6000000000000001E-2</v>
+        <v>0.15</v>
       </c>
       <c r="D92" s="2">
         <v>0</v>
@@ -2502,14 +2520,14 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>76</v>
+      <c r="A93" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C93" s="2">
-        <v>35</v>
+        <v>117</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0.7142857142857143</v>
       </c>
       <c r="D93" s="2">
         <v>0</v>
@@ -2520,13 +2538,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C94" s="2">
-        <v>0.15</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D94" s="2">
         <v>0</v>
@@ -2537,13 +2555,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C95" s="2">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="D95" s="2">
         <v>0</v>
@@ -2554,13 +2572,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C96" s="2">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="D96" s="2">
         <v>0</v>
@@ -2571,13 +2589,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C97" s="2">
-        <v>0.1647058823529412</v>
+        <v>300</v>
       </c>
       <c r="D97" s="2">
         <v>0</v>
@@ -2588,13 +2606,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C98" s="2">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="D98" s="2">
         <v>0</v>
@@ -2605,67 +2623,67 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.1647058823529412</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="2">
+      <c r="B101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="2">
         <f>25/100</f>
         <v>0.25</v>
       </c>
-      <c r="D99" s="2">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" s="2">
+      <c r="B102" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" s="2">
         <f>850/1000</f>
         <v>0.85</v>
       </c>
-      <c r="D100" s="2">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C102" s="2">
-        <v>0.05</v>
-      </c>
       <c r="D102" s="2">
         <v>0</v>
       </c>
@@ -2675,13 +2693,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C103" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D103" s="2">
         <v>0</v>
@@ -2692,84 +2710,84 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" s="2">
+      <c r="B106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="2">
         <f>125/50</f>
         <v>2.5</v>
       </c>
-      <c r="D104" s="2">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="D106" s="2">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C105" s="2">
+      <c r="B107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="2">
         <v>0.1176470588235294</v>
       </c>
-      <c r="D105" s="2">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="D107" s="2">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C106" s="2">
+      <c r="B108" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" s="2">
         <f>27/50</f>
         <v>0.54</v>
       </c>
-      <c r="D106" s="2">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C107" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="D107" s="2">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C108" s="2">
-        <v>0.12</v>
-      </c>
       <c r="D108" s="2">
         <v>0</v>
       </c>
@@ -2779,13 +2797,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C109" s="2">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="D109" s="2">
         <v>0</v>
@@ -2796,13 +2814,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2">
-        <v>4</v>
+        <v>0.12</v>
       </c>
       <c r="D110" s="2">
         <v>0</v>
@@ -2813,13 +2831,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C111" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D111" s="2">
         <v>0</v>
@@ -2830,13 +2848,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C112" s="2">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="D112" s="2">
         <v>0</v>
@@ -2847,13 +2865,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C113" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D113" s="2">
         <v>0</v>
@@ -2864,13 +2882,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2">
-        <v>0.03</v>
+        <v>200</v>
       </c>
       <c r="D114" s="2">
         <v>0</v>
@@ -2881,13 +2899,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C115" s="2">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D115" s="2">
         <v>0</v>
@@ -2898,81 +2916,82 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="5">
+        <f>150/500</f>
+        <v>0.3</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" s="2">
+      <c r="B119" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="2">
         <v>0.3</v>
       </c>
-      <c r="D116" s="2">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="D119" s="2">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C117" s="2">
+      <c r="B120" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="2">
         <v>0.14117647058823529</v>
-      </c>
-      <c r="D117" s="2">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="D118" s="2">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C119" s="5">
-        <v>1</v>
-      </c>
-      <c r="D119" s="2">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C120" s="5">
-        <v>0.13</v>
       </c>
       <c r="D120" s="2">
         <v>0</v>
@@ -2983,83 +3002,83 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" s="5">
+        <v>1</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C123" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C121" s="5">
+      <c r="B124" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C124" s="5">
         <v>0.7142857142857143</v>
       </c>
-      <c r="D121" s="2">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="D124" s="2">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C122" s="2">
+      <c r="B125" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C125" s="2">
         <f>130/50</f>
         <v>2.6</v>
       </c>
-      <c r="D122" s="2">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C123" s="2">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D123" s="2">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C124" s="2">
-        <v>8</v>
-      </c>
-      <c r="D124" s="2">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C125" s="2">
-        <v>0.16</v>
-      </c>
       <c r="D125" s="2">
         <v>0</v>
       </c>
@@ -3069,13 +3088,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" s="2">
-        <v>15</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D126" s="2">
         <v>0</v>
@@ -3086,13 +3105,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C127" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D127" s="2">
         <v>0</v>
@@ -3103,13 +3122,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C128" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.16</v>
       </c>
       <c r="D128" s="2">
         <v>0</v>
@@ -3120,13 +3139,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C129" s="2">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2">
         <v>0</v>
@@ -3137,13 +3156,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C130" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D130" s="2">
         <v>0</v>
@@ -3154,13 +3173,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C131" s="2">
-        <v>0.14941176470588241</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D131" s="2">
         <v>0</v>
@@ -3171,13 +3190,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C132" s="2">
-        <v>0.12</v>
+        <v>3.5</v>
       </c>
       <c r="D132" s="2">
         <v>0</v>
@@ -3188,13 +3207,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C133" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>2.66666666666667E-2</v>
       </c>
       <c r="D133" s="2">
         <v>0</v>
@@ -3205,82 +3224,82 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0.14941176470588241</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C137" s="2">
         <f>70/30</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="D134" s="2">
-        <v>0</v>
-      </c>
-      <c r="E134" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C135" s="2">
+      <c r="B138" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C138" s="2">
         <v>0.7</v>
-      </c>
-      <c r="D135" s="2">
-        <v>0</v>
-      </c>
-      <c r="E135" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C136" s="2">
-        <v>200</v>
-      </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C137" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D137" s="2">
-        <v>0</v>
-      </c>
-      <c r="E137" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C138" s="2">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D138" s="2">
         <v>0</v>
@@ -3291,13 +3310,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C139" s="2">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="D139" s="2">
         <v>0</v>
@@ -3308,13 +3327,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C140" s="2">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D140" s="2">
         <v>0</v>
@@ -3324,14 +3343,14 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>110</v>
+      <c r="A141" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C141" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D141" s="2">
         <v>0</v>
@@ -3342,13 +3361,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C142" s="2">
-        <v>0.1176470588235294</v>
+        <v>18</v>
       </c>
       <c r="D142" s="2">
         <v>0</v>
@@ -3359,13 +3378,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C143" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D143" s="2">
         <v>0</v>
@@ -3376,13 +3395,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C144" s="2">
-        <v>0.4</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D144" s="2">
         <v>0</v>
@@ -3393,13 +3412,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C145" s="8">
-        <v>250</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D145" s="6">
         <v>0</v>
@@ -3410,13 +3429,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C146" s="2">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D146" s="2">
         <v>0</v>
@@ -3427,13 +3446,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C147" s="2">
-        <v>4.6153846153846163E-2</v>
+        <v>0.4</v>
       </c>
       <c r="D147" s="2">
         <v>0</v>
@@ -3444,13 +3463,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C148" s="2">
-        <v>1E-3</v>
+        <v>250</v>
       </c>
       <c r="D148" s="2">
         <v>0</v>
@@ -3460,14 +3479,14 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>145</v>
+      <c r="A149" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C149" s="5">
-        <v>1.2</v>
+      <c r="C149" s="2">
+        <v>0.12</v>
       </c>
       <c r="D149" s="2">
         <v>0</v>
@@ -3478,13 +3497,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C150" s="2">
-        <v>6.3E-2</v>
+        <v>4.6153846153846163E-2</v>
       </c>
       <c r="D150" s="2">
         <v>0</v>
@@ -3495,42 +3514,111 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C152" s="5">
+        <f>150/500</f>
+        <v>0.3</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C153" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+      <c r="E153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C154" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0</v>
+      </c>
+      <c r="E154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C151" s="2">
+      <c r="B155" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C155" s="2">
         <f>40/100</f>
         <v>0.4</v>
       </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+      <c r="E155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C152" s="5">
+      <c r="B156" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C156" s="5">
         <v>2.1071428571428572</v>
       </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-      <c r="E152" s="2">
+      <c r="D156" s="2">
+        <v>0</v>
+      </c>
+      <c r="E156" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E152">
-    <sortCondition ref="A1:A152"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E156">
+    <sortCondition ref="A1:A156"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
@@ -993,7 +993,7 @@
         <v>0.75</v>
       </c>
       <c r="D8">
-        <v>37.5</v>
+        <v>150</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0.15</v>
       </c>
       <c r="D39">
-        <v>112.5</v>
+        <v>450</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1826,7 +1826,7 @@
         <v>0.28</v>
       </c>
       <c r="D57">
-        <v>112.5</v>
+        <v>225</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0.28</v>
       </c>
       <c r="D62">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>2.6</v>
       </c>
       <c r="D65">
-        <v>11.25</v>
+        <v>45</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0.12</v>
       </c>
       <c r="D67">
-        <v>112.5</v>
+        <v>450</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="D76">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>3.75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2489,7 +2489,7 @@
         <v>0.15</v>
       </c>
       <c r="D96">
-        <v>56.25</v>
+        <v>225</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0.21</v>
       </c>
       <c r="D98">
-        <v>112.5</v>
+        <v>450</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0.12</v>
       </c>
       <c r="D110">
-        <v>1875</v>
+        <v>7500</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0.027</v>
       </c>
       <c r="D126">
-        <v>37.5</v>
+        <v>150</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0.045</v>
       </c>
       <c r="D140">
-        <v>18.75</v>
+        <v>75</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0.04615384615384616</v>
       </c>
       <c r="D150">
-        <v>112.5</v>
+        <v>450</v>
       </c>
       <c r="E150">
         <v>0</v>

--- a/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="167">
   <si>
     <t>Product</t>
   </si>
@@ -223,6 +223,9 @@
     <t>Gorom Moshla Powder</t>
   </si>
   <si>
+    <t>Gram Flour</t>
+  </si>
+  <si>
     <t>Green Cardamom</t>
   </si>
   <si>
@@ -494,6 +497,18 @@
   </si>
   <si>
     <t>Yellow Food Color</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Basmati Rice</t>
+  </si>
+  <si>
+    <t>Masoor dal</t>
+  </si>
+  <si>
+    <t>Tomato Ketchup - Fine Life</t>
   </si>
   <si>
     <t>gm</t>
@@ -857,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -885,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -902,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C3">
         <v>0.8</v>
@@ -919,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C4">
         <v>0.25</v>
@@ -928,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -936,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C5">
         <v>0.1</v>
@@ -953,7 +968,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C6">
         <v>4.35</v>
@@ -970,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C7">
         <v>0.25</v>
@@ -979,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -987,13 +1002,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C8">
         <v>0.75</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1004,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C9">
         <v>0.75</v>
@@ -1021,13 +1036,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C10">
         <v>0.07000000000000001</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1038,7 +1053,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C11">
         <v>300</v>
@@ -1055,7 +1070,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1072,13 +1087,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C13">
         <v>0.58</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1089,7 +1104,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C14">
         <v>0.58</v>
@@ -1106,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C15">
         <v>200</v>
@@ -1123,7 +1138,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C16">
         <v>0.08</v>
@@ -1140,7 +1155,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C17">
         <v>0.2</v>
@@ -1157,7 +1172,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C18">
         <v>0.08</v>
@@ -1174,13 +1189,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C19">
         <v>0.75</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1191,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C20">
         <v>0.225</v>
@@ -1208,13 +1223,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C21">
         <v>0.25</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1225,13 +1240,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C22">
         <v>0.85</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1242,7 +1257,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -1259,7 +1274,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C24">
         <v>0.25</v>
@@ -1276,7 +1291,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C25">
         <v>0.28</v>
@@ -1293,7 +1308,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C26">
         <v>0.25</v>
@@ -1310,10 +1325,10 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C27">
-        <v>0.8</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1327,7 +1342,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C28">
         <v>0.22</v>
@@ -1344,7 +1359,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C29">
         <v>0.26</v>
@@ -1361,7 +1376,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C30">
         <v>0.12</v>
@@ -1378,7 +1393,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C31">
         <v>0.3</v>
@@ -1395,7 +1410,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C32">
         <v>0.15</v>
@@ -1412,13 +1427,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C33">
         <v>0.35</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1429,7 +1444,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C34">
         <v>0.75</v>
@@ -1446,7 +1461,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C35">
         <v>210</v>
@@ -1463,7 +1478,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C36">
         <v>0.8</v>
@@ -1472,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1480,7 +1495,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C37">
         <v>0.25</v>
@@ -1489,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1497,7 +1512,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C38">
         <v>0.7</v>
@@ -1514,13 +1529,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C39">
         <v>0.15</v>
       </c>
       <c r="D39">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1531,13 +1546,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C40">
         <v>0.5</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1548,13 +1563,13 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C41">
         <v>0.2</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1565,13 +1580,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C42">
         <v>0.07000000000000001</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1582,7 +1597,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C43">
         <v>1.55</v>
@@ -1599,7 +1614,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C44">
         <v>0.1</v>
@@ -1616,7 +1631,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C45">
         <v>0.15</v>
@@ -1633,7 +1648,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C46">
         <v>0.12</v>
@@ -1650,7 +1665,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1667,7 +1682,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C48">
         <v>0.075</v>
@@ -1684,13 +1699,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C49">
         <v>0.15</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>3174</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1701,7 +1716,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -1710,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1718,7 +1733,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C51">
         <v>0.3333333333333333</v>
@@ -1735,13 +1750,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C52">
         <v>0.72</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1752,7 +1767,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C53">
         <v>0.15</v>
@@ -1769,13 +1784,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C54">
         <v>0.16</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1786,7 +1801,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C55">
         <v>0.05</v>
@@ -1803,13 +1818,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C56">
         <v>0.272</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1820,13 +1835,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C57">
         <v>0.28</v>
       </c>
       <c r="D57">
-        <v>225</v>
+        <v>1200</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1837,13 +1852,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1854,7 +1869,7 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C59">
         <v>1100</v>
@@ -1871,7 +1886,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C60">
         <v>1800</v>
@@ -1888,7 +1903,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C61">
         <v>0.6</v>
@@ -1905,13 +1920,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C62">
         <v>0.28</v>
       </c>
       <c r="D62">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1922,13 +1937,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1939,7 +1954,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C64">
         <v>10</v>
@@ -1956,13 +1971,13 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C65">
         <v>2.6</v>
       </c>
       <c r="D65">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1973,13 +1988,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C66">
-        <v>1.2</v>
+        <v>0.146</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1990,13 +2005,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C67">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="D67">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2007,10 +2022,10 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C68">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2024,10 +2039,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C69">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2041,10 +2056,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C70">
-        <v>1.96</v>
+        <v>0.5</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2058,13 +2073,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C71">
-        <v>0.15</v>
+        <v>1.96</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2075,10 +2090,10 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C72">
-        <v>1.2</v>
+        <v>0.15</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2092,13 +2107,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C73">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2109,13 +2124,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C74">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2126,16 +2141,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C75">
-        <v>1.22</v>
+        <v>0.3</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2143,13 +2158,13 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C76">
-        <v>0.1176470588235294</v>
+        <v>1.22</v>
       </c>
       <c r="D76">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2160,10 +2175,10 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C77">
-        <v>0.96</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2177,13 +2192,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C78">
-        <v>0.13</v>
+        <v>0.96</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2194,16 +2209,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>0.13</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2211,10 +2226,10 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C80">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2228,10 +2243,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C81">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2245,10 +2260,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C82">
-        <v>369</v>
+        <v>10</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2262,10 +2277,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C83">
-        <v>0.2</v>
+        <v>369</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2279,13 +2294,13 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2296,13 +2311,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C85">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2313,10 +2328,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C86">
-        <v>0.8333333333333334</v>
+        <v>14</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2330,10 +2345,10 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C87">
-        <v>0.041</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2347,10 +2362,10 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C88">
-        <v>1.1</v>
+        <v>0.041</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2364,10 +2379,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C89">
-        <v>200</v>
+        <v>1.1</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2381,10 +2396,10 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C90">
-        <v>0.5</v>
+        <v>200</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2398,10 +2413,10 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C91">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2415,13 +2430,13 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C92">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2432,13 +2447,13 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C93">
-        <v>0.7142857142857143</v>
+        <v>0.15</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2449,10 +2464,10 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C94">
-        <v>0.056</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2466,10 +2481,10 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C95">
-        <v>35</v>
+        <v>0.056</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2483,13 +2498,13 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C96">
-        <v>0.15</v>
+        <v>35</v>
       </c>
       <c r="D96">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2500,10 +2515,10 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C97">
-        <v>300</v>
+        <v>0.15</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2517,13 +2532,13 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C98">
-        <v>0.21</v>
+        <v>300</v>
       </c>
       <c r="D98">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2534,13 +2549,13 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C99">
-        <v>0.1647058823529412</v>
+        <v>0.21</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2551,10 +2566,10 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C100">
-        <v>0.3</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2568,13 +2583,13 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C101">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2585,13 +2600,13 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C102">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -2602,10 +2617,10 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C103">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -2619,13 +2634,13 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C104">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2636,10 +2651,10 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2653,13 +2668,13 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C106">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2670,13 +2685,13 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C107">
-        <v>0.1176470588235294</v>
+        <v>2.5</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2687,10 +2702,10 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C108">
-        <v>0.54</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2704,10 +2719,10 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C109">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2721,13 +2736,13 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C110">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="D110">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -2738,13 +2753,13 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C111">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -2755,10 +2770,10 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2772,10 +2787,10 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C113">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2789,13 +2804,13 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C114">
-        <v>200</v>
+        <v>0.3</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -2806,10 +2821,10 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C115">
-        <v>0.4</v>
+        <v>200</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2823,10 +2838,10 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C116">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2840,10 +2855,10 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C117">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2857,10 +2872,10 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C118">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2874,13 +2889,13 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C119">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2891,13 +2906,13 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C120">
-        <v>0.1411764705882353</v>
+        <v>0.3</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -2908,13 +2923,13 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C121">
-        <v>0.11</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2925,10 +2940,10 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2942,10 +2957,10 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C123">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2959,10 +2974,10 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C124">
-        <v>0.7142857142857143</v>
+        <v>0.13</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -2976,10 +2991,10 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C125">
-        <v>2.6</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2993,13 +3008,13 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C126">
-        <v>0.027</v>
+        <v>2.6</v>
       </c>
       <c r="D126">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -3010,10 +3025,10 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C127">
-        <v>8</v>
+        <v>0.027</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3027,10 +3042,10 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C128">
-        <v>0.16</v>
+        <v>8</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3044,13 +3059,13 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C129">
-        <v>15</v>
+        <v>0.16</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -3061,10 +3076,10 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3078,13 +3093,13 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C131">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3095,10 +3110,10 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C132">
-        <v>3.5</v>
+        <v>0.58</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -3112,13 +3127,13 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C133">
-        <v>0.0266666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3129,10 +3144,10 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C134">
-        <v>0.1494117647058824</v>
+        <v>0.0266666666666667</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -3146,13 +3161,13 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C135">
-        <v>0.12</v>
+        <v>0.1494117647058824</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3163,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C136">
-        <v>0.043</v>
+        <v>0.12</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3180,10 +3195,10 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C137">
-        <v>2.333333333333333</v>
+        <v>0.043</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -3197,16 +3212,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C138">
-        <v>0.7</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3214,10 +3229,10 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C139">
-        <v>200</v>
+        <v>0.7</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -3231,13 +3246,13 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C140">
-        <v>0.045</v>
+        <v>200</v>
       </c>
       <c r="D140">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -3248,10 +3263,10 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C141">
-        <v>0.098</v>
+        <v>0.045</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -3265,10 +3280,10 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C142">
-        <v>18</v>
+        <v>0.098</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -3282,10 +3297,10 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C143">
-        <v>0.05</v>
+        <v>18</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -3299,10 +3314,10 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C144">
-        <v>0.075</v>
+        <v>0.05</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -3316,10 +3331,10 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C145">
-        <v>0.1176470588235294</v>
+        <v>0.075</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -3333,13 +3348,13 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C146">
-        <v>0.07000000000000001</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -3350,13 +3365,13 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C147">
-        <v>0.4</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -3367,13 +3382,13 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C148">
-        <v>250</v>
+        <v>0.4</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -3384,10 +3399,10 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C149">
-        <v>0.12</v>
+        <v>250</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -3401,13 +3416,13 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C150">
-        <v>0.04615384615384616</v>
+        <v>0.12</v>
       </c>
       <c r="D150">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -3418,13 +3433,13 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C151">
-        <v>0.001</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -3435,10 +3450,10 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C152">
-        <v>0.3</v>
+        <v>0.001</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -3452,10 +3467,10 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C153">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -3469,10 +3484,10 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C154">
-        <v>0.063</v>
+        <v>1.2</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -3486,10 +3501,10 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C155">
-        <v>0.4</v>
+        <v>0.063</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -3503,15 +3518,134 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
+        <v>165</v>
+      </c>
+      <c r="C156">
+        <v>0.4</v>
+      </c>
+      <c r="D156">
+        <v>200</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
         <v>160</v>
       </c>
-      <c r="C156">
+      <c r="B157" t="s">
+        <v>165</v>
+      </c>
+      <c r="C157">
         <v>2.107142857142857</v>
       </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158">
+        <v>0.495</v>
+      </c>
+      <c r="D158">
+        <v>700</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159" t="s">
+        <v>165</v>
+      </c>
+      <c r="C159">
+        <v>0.4</v>
+      </c>
+      <c r="D159">
+        <v>350</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>121</v>
+      </c>
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160">
+        <v>0.4</v>
+      </c>
+      <c r="D160">
+        <v>260</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161">
+        <v>0.068</v>
+      </c>
+      <c r="D161">
+        <v>420</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162">
+        <v>0.081</v>
+      </c>
+      <c r="D162">
+        <v>5252</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>165</v>
+      </c>
+      <c r="C163">
+        <v>0.17</v>
+      </c>
+      <c r="D163">
+        <v>13300</v>
+      </c>
+      <c r="E163">
         <v>0</v>
       </c>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="173">
   <si>
     <t>Product</t>
   </si>
@@ -509,6 +509,24 @@
   </si>
   <si>
     <t>Tomato Ketchup - Fine Life</t>
+  </si>
+  <si>
+    <t>Hard Broom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janta Detergent Powder 1Kg </t>
+  </si>
+  <si>
+    <t>Glazzy - Dishwash Bar 700 gm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Purpose Duster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor Duster </t>
+  </si>
+  <si>
+    <t>Coocking Cream</t>
   </si>
   <si>
     <t>gm</t>
@@ -872,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,7 +918,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -917,7 +935,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C3">
         <v>0.8</v>
@@ -934,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C4">
         <v>0.25</v>
@@ -951,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C5">
         <v>0.1</v>
@@ -968,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C6">
         <v>4.35</v>
@@ -985,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C7">
         <v>0.25</v>
@@ -1002,13 +1020,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C8">
         <v>0.75</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1019,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C9">
         <v>0.75</v>
@@ -1036,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C10">
         <v>0.07000000000000001</v>
@@ -1053,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C11">
         <v>300</v>
@@ -1070,7 +1088,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1087,7 +1105,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C13">
         <v>0.58</v>
@@ -1104,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C14">
         <v>0.58</v>
@@ -1121,7 +1139,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C15">
         <v>200</v>
@@ -1138,13 +1156,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C16">
         <v>0.08</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1155,13 +1173,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C17">
         <v>0.2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1172,13 +1190,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C18">
         <v>0.08</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1189,7 +1207,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C19">
         <v>0.75</v>
@@ -1206,7 +1224,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C20">
         <v>0.225</v>
@@ -1223,7 +1241,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C21">
         <v>0.25</v>
@@ -1240,7 +1258,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C22">
         <v>0.85</v>
@@ -1257,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -1274,7 +1292,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C24">
         <v>0.25</v>
@@ -1291,13 +1309,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C25">
         <v>0.28</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1308,7 +1326,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C26">
         <v>0.25</v>
@@ -1325,7 +1343,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C27">
         <v>15</v>
@@ -1342,7 +1360,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C28">
         <v>0.22</v>
@@ -1359,7 +1377,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C29">
         <v>0.26</v>
@@ -1376,13 +1394,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C30">
         <v>0.12</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1393,7 +1411,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C31">
         <v>0.3</v>
@@ -1410,7 +1428,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C32">
         <v>0.15</v>
@@ -1427,7 +1445,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C33">
         <v>0.35</v>
@@ -1444,7 +1462,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C34">
         <v>0.75</v>
@@ -1461,7 +1479,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C35">
         <v>210</v>
@@ -1478,7 +1496,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C36">
         <v>0.8</v>
@@ -1495,7 +1513,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C37">
         <v>0.25</v>
@@ -1512,7 +1530,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C38">
         <v>0.7</v>
@@ -1529,13 +1547,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C39">
         <v>0.15</v>
       </c>
       <c r="D39">
-        <v>1100</v>
+        <v>254</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1546,7 +1564,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C40">
         <v>0.5</v>
@@ -1563,7 +1581,7 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C41">
         <v>0.2</v>
@@ -1580,7 +1598,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C42">
         <v>0.07000000000000001</v>
@@ -1597,7 +1615,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C43">
         <v>1.55</v>
@@ -1614,7 +1632,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C44">
         <v>0.1</v>
@@ -1631,7 +1649,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C45">
         <v>0.15</v>
@@ -1648,7 +1666,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C46">
         <v>0.12</v>
@@ -1665,7 +1683,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1682,7 +1700,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C48">
         <v>0.075</v>
@@ -1699,13 +1717,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C49">
         <v>0.15</v>
       </c>
       <c r="D49">
-        <v>3174</v>
+        <v>2774</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1716,7 +1734,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -1733,7 +1751,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C51">
         <v>0.3333333333333333</v>
@@ -1750,7 +1768,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C52">
         <v>0.72</v>
@@ -1767,7 +1785,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C53">
         <v>0.15</v>
@@ -1784,7 +1802,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C54">
         <v>0.16</v>
@@ -1801,7 +1819,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C55">
         <v>0.05</v>
@@ -1818,7 +1836,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C56">
         <v>0.272</v>
@@ -1835,13 +1853,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C57">
         <v>0.28</v>
       </c>
       <c r="D57">
-        <v>1200</v>
+        <v>810</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1852,7 +1870,7 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1869,7 +1887,7 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C59">
         <v>1100</v>
@@ -1886,7 +1904,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C60">
         <v>1800</v>
@@ -1903,7 +1921,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C61">
         <v>0.6</v>
@@ -1920,13 +1938,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C62">
         <v>0.28</v>
       </c>
       <c r="D62">
-        <v>800</v>
+        <v>248</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1937,7 +1955,7 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1954,7 +1972,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C64">
         <v>10</v>
@@ -1971,7 +1989,7 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C65">
         <v>2.6</v>
@@ -1988,7 +2006,7 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C66">
         <v>0.146</v>
@@ -2005,7 +2023,7 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C67">
         <v>1.2</v>
@@ -2022,13 +2040,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C68">
         <v>0.12</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2039,7 +2057,7 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C69">
         <v>0.15</v>
@@ -2056,7 +2074,7 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C70">
         <v>0.5</v>
@@ -2073,7 +2091,7 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C71">
         <v>1.96</v>
@@ -2090,7 +2108,7 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C72">
         <v>0.15</v>
@@ -2107,7 +2125,7 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C73">
         <v>1.2</v>
@@ -2124,7 +2142,7 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C74">
         <v>0.4</v>
@@ -2141,7 +2159,7 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C75">
         <v>0.3</v>
@@ -2158,7 +2176,7 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C76">
         <v>1.22</v>
@@ -2175,7 +2193,7 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C77">
         <v>0.1176470588235294</v>
@@ -2192,7 +2210,7 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C78">
         <v>0.96</v>
@@ -2209,7 +2227,7 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C79">
         <v>0.13</v>
@@ -2226,7 +2244,7 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -2243,7 +2261,7 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C81">
         <v>0.3</v>
@@ -2260,7 +2278,7 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C82">
         <v>10</v>
@@ -2277,7 +2295,7 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C83">
         <v>369</v>
@@ -2294,7 +2312,7 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C84">
         <v>0.2</v>
@@ -2311,7 +2329,7 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -2328,7 +2346,7 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C86">
         <v>14</v>
@@ -2345,7 +2363,7 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C87">
         <v>0.8333333333333334</v>
@@ -2362,13 +2380,13 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C88">
         <v>0.041</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2379,7 +2397,7 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C89">
         <v>1.1</v>
@@ -2396,7 +2414,7 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C90">
         <v>200</v>
@@ -2413,7 +2431,7 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C91">
         <v>0.5</v>
@@ -2430,7 +2448,7 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C92">
         <v>0.12</v>
@@ -2447,13 +2465,13 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C93">
         <v>0.15</v>
       </c>
       <c r="D93">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2464,7 +2482,7 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C94">
         <v>0.7142857142857143</v>
@@ -2481,7 +2499,7 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C95">
         <v>0.056</v>
@@ -2498,7 +2516,7 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C96">
         <v>35</v>
@@ -2515,7 +2533,7 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C97">
         <v>0.15</v>
@@ -2532,7 +2550,7 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C98">
         <v>300</v>
@@ -2549,13 +2567,13 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C99">
         <v>0.21</v>
       </c>
       <c r="D99">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2566,7 +2584,7 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C100">
         <v>0.1647058823529412</v>
@@ -2583,7 +2601,7 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C101">
         <v>0.3</v>
@@ -2600,7 +2618,7 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C102">
         <v>0.25</v>
@@ -2617,7 +2635,7 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C103">
         <v>0.85</v>
@@ -2634,7 +2652,7 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C104">
         <v>0.7</v>
@@ -2651,13 +2669,13 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C105">
         <v>0.05</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2668,7 +2686,7 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2685,7 +2703,7 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C107">
         <v>2.5</v>
@@ -2702,7 +2720,7 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C108">
         <v>0.1176470588235294</v>
@@ -2719,7 +2737,7 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C109">
         <v>0.54</v>
@@ -2736,7 +2754,7 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C110">
         <v>0.26</v>
@@ -2753,7 +2771,7 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C111">
         <v>0.12</v>
@@ -2770,7 +2788,7 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C112">
         <v>0.2</v>
@@ -2787,7 +2805,7 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -2804,7 +2822,7 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C114">
         <v>0.3</v>
@@ -2821,7 +2839,7 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C115">
         <v>200</v>
@@ -2838,7 +2856,7 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C116">
         <v>0.4</v>
@@ -2855,7 +2873,7 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C117">
         <v>0.03</v>
@@ -2872,7 +2890,7 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C118">
         <v>0.3</v>
@@ -2889,7 +2907,7 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C119">
         <v>0.7</v>
@@ -2906,7 +2924,7 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C120">
         <v>0.3</v>
@@ -2923,13 +2941,13 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C121">
         <v>0.1411764705882353</v>
       </c>
       <c r="D121">
-        <v>3400</v>
+        <v>340</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2940,7 +2958,7 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C122">
         <v>0.11</v>
@@ -2957,7 +2975,7 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -2974,7 +2992,7 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C124">
         <v>0.13</v>
@@ -2991,7 +3009,7 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C125">
         <v>0.7142857142857143</v>
@@ -3008,7 +3026,7 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C126">
         <v>2.6</v>
@@ -3025,7 +3043,7 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C127">
         <v>0.027</v>
@@ -3042,7 +3060,7 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C128">
         <v>8</v>
@@ -3059,7 +3077,7 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C129">
         <v>0.16</v>
@@ -3076,7 +3094,7 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C130">
         <v>15</v>
@@ -3093,7 +3111,7 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3110,7 +3128,7 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C132">
         <v>0.58</v>
@@ -3127,7 +3145,7 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C133">
         <v>3.5</v>
@@ -3144,7 +3162,7 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C134">
         <v>0.0266666666666667</v>
@@ -3161,7 +3179,7 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C135">
         <v>0.1494117647058824</v>
@@ -3178,13 +3196,13 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C136">
         <v>0.12</v>
       </c>
       <c r="D136">
-        <v>1050</v>
+        <v>380</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3195,7 +3213,7 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C137">
         <v>0.043</v>
@@ -3212,7 +3230,7 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C138">
         <v>2.333333333333333</v>
@@ -3229,7 +3247,7 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C139">
         <v>0.7</v>
@@ -3246,7 +3264,7 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C140">
         <v>200</v>
@@ -3263,7 +3281,7 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C141">
         <v>0.045</v>
@@ -3280,7 +3298,7 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C142">
         <v>0.098</v>
@@ -3297,7 +3315,7 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C143">
         <v>18</v>
@@ -3314,7 +3332,7 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C144">
         <v>0.05</v>
@@ -3331,7 +3349,7 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C145">
         <v>0.075</v>
@@ -3348,7 +3366,7 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C146">
         <v>0.1176470588235294</v>
@@ -3365,7 +3383,7 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C147">
         <v>0.07000000000000001</v>
@@ -3382,7 +3400,7 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C148">
         <v>0.4</v>
@@ -3399,7 +3417,7 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C149">
         <v>250</v>
@@ -3416,7 +3434,7 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C150">
         <v>0.12</v>
@@ -3433,13 +3451,13 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C151">
         <v>0.04615384615384616</v>
       </c>
       <c r="D151">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -3450,13 +3468,13 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C152">
         <v>0.001</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -3467,7 +3485,7 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C153">
         <v>0.3</v>
@@ -3484,7 +3502,7 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C154">
         <v>1.2</v>
@@ -3501,7 +3519,7 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C155">
         <v>0.063</v>
@@ -3518,7 +3536,7 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C156">
         <v>0.4</v>
@@ -3535,7 +3553,7 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C157">
         <v>2.107142857142857</v>
@@ -3552,7 +3570,7 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C158">
         <v>0.495</v>
@@ -3569,7 +3587,7 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C159">
         <v>0.4</v>
@@ -3586,7 +3604,7 @@
         <v>121</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C160">
         <v>0.4</v>
@@ -3603,7 +3621,7 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C161">
         <v>0.068</v>
@@ -3620,7 +3638,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C162">
         <v>0.081</v>
@@ -3637,15 +3655,117 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C163">
         <v>0.17</v>
       </c>
       <c r="D163">
-        <v>13300</v>
+        <v>13076</v>
       </c>
       <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" t="s">
+        <v>172</v>
+      </c>
+      <c r="C164">
+        <v>57.7</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" t="s">
+        <v>172</v>
+      </c>
+      <c r="C165">
+        <v>49.75</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" t="s">
+        <v>172</v>
+      </c>
+      <c r="C166">
+        <v>36.36</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167">
+        <v>10.29</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
+      <c r="C168">
+        <v>14.58</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>171</v>
+      </c>
+      <c r="C169">
+        <v>0.21</v>
+      </c>
+      <c r="D169">
+        <v>1000</v>
+      </c>
+      <c r="E169">
         <v>0</v>
       </c>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
@@ -1162,7 +1162,7 @@
         <v>0.08</v>
       </c>
       <c r="D16">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0.2</v>
       </c>
       <c r="D17">
-        <v>224</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0.08</v>
       </c>
       <c r="D18">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0.28</v>
       </c>
       <c r="D25">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0.25</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0.12</v>
       </c>
       <c r="D30">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0.15</v>
       </c>
       <c r="D39">
-        <v>254</v>
+        <v>1000</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0.5</v>
       </c>
       <c r="D40">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0.15</v>
       </c>
       <c r="D49">
-        <v>2774</v>
+        <v>2674</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0.28</v>
       </c>
       <c r="D57">
-        <v>810</v>
+        <v>1610</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0.28</v>
       </c>
       <c r="D62">
-        <v>248</v>
+        <v>700</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0.12</v>
       </c>
       <c r="D68">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>1.2</v>
       </c>
       <c r="D73">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0.13</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0.21</v>
       </c>
       <c r="D99">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0.7</v>
       </c>
       <c r="D104">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0.05</v>
       </c>
       <c r="D105">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>0.3</v>
       </c>
       <c r="D114">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0.03</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0.7</v>
       </c>
       <c r="D119">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0.1411764705882353</v>
       </c>
       <c r="D121">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0.13</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>0.1494117647058824</v>
       </c>
       <c r="D135">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0.12</v>
       </c>
       <c r="D136">
-        <v>380</v>
+        <v>1100</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0.043</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>0.04615384615384616</v>
       </c>
       <c r="D151">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168" spans="1:5">

--- a/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="174">
   <si>
     <t>Product</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>Coocking Cream</t>
+  </si>
+  <si>
+    <t>Kismis</t>
   </si>
   <si>
     <t>gm</t>
@@ -890,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -918,7 +921,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -935,7 +938,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C3">
         <v>0.8</v>
@@ -952,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4">
         <v>0.25</v>
@@ -969,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C5">
         <v>0.1</v>
@@ -986,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6">
         <v>4.35</v>
@@ -1003,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C7">
         <v>0.25</v>
@@ -1020,13 +1023,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C8">
         <v>0.75</v>
       </c>
       <c r="D8">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1037,13 +1040,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C9">
         <v>0.75</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1054,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10">
         <v>0.07000000000000001</v>
@@ -1071,7 +1074,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11">
         <v>300</v>
@@ -1088,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1105,7 +1108,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C13">
         <v>0.58</v>
@@ -1122,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14">
         <v>0.58</v>
@@ -1139,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15">
         <v>200</v>
@@ -1156,7 +1159,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C16">
         <v>0.08</v>
@@ -1173,13 +1176,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C17">
         <v>0.2</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1190,7 +1193,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C18">
         <v>0.08</v>
@@ -1207,13 +1210,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19">
         <v>0.75</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1224,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20">
         <v>0.225</v>
@@ -1241,7 +1244,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C21">
         <v>0.25</v>
@@ -1258,7 +1261,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C22">
         <v>0.85</v>
@@ -1275,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -1292,7 +1295,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C24">
         <v>0.25</v>
@@ -1309,7 +1312,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C25">
         <v>0.28</v>
@@ -1326,13 +1329,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26">
         <v>0.25</v>
       </c>
       <c r="D26">
-        <v>8000</v>
+        <v>4400</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1343,7 +1346,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C27">
         <v>15</v>
@@ -1360,7 +1363,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C28">
         <v>0.22</v>
@@ -1377,7 +1380,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C29">
         <v>0.26</v>
@@ -1394,7 +1397,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C30">
         <v>0.12</v>
@@ -1411,7 +1414,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C31">
         <v>0.3</v>
@@ -1428,7 +1431,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C32">
         <v>0.15</v>
@@ -1445,7 +1448,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C33">
         <v>0.35</v>
@@ -1462,7 +1465,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C34">
         <v>0.75</v>
@@ -1479,7 +1482,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C35">
         <v>210</v>
@@ -1496,7 +1499,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C36">
         <v>0.8</v>
@@ -1505,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1513,7 +1516,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C37">
         <v>0.25</v>
@@ -1530,7 +1533,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C38">
         <v>0.7</v>
@@ -1547,13 +1550,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C39">
         <v>0.15</v>
       </c>
       <c r="D39">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1564,7 +1567,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C40">
         <v>0.5</v>
@@ -1581,7 +1584,7 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C41">
         <v>0.2</v>
@@ -1598,7 +1601,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C42">
         <v>0.07000000000000001</v>
@@ -1615,7 +1618,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C43">
         <v>1.55</v>
@@ -1632,7 +1635,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C44">
         <v>0.1</v>
@@ -1649,7 +1652,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C45">
         <v>0.15</v>
@@ -1666,7 +1669,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C46">
         <v>0.12</v>
@@ -1683,7 +1686,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1700,7 +1703,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C48">
         <v>0.075</v>
@@ -1717,13 +1720,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C49">
         <v>0.15</v>
       </c>
       <c r="D49">
-        <v>2674</v>
+        <v>574</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1734,7 +1737,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -1751,7 +1754,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C51">
         <v>0.3333333333333333</v>
@@ -1768,7 +1771,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C52">
         <v>0.72</v>
@@ -1785,7 +1788,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C53">
         <v>0.15</v>
@@ -1802,7 +1805,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C54">
         <v>0.16</v>
@@ -1819,7 +1822,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C55">
         <v>0.05</v>
@@ -1836,7 +1839,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C56">
         <v>0.272</v>
@@ -1853,13 +1856,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C57">
         <v>0.28</v>
       </c>
       <c r="D57">
-        <v>1610</v>
+        <v>640</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1870,7 +1873,7 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1887,7 +1890,7 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C59">
         <v>1100</v>
@@ -1904,7 +1907,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C60">
         <v>1800</v>
@@ -1921,7 +1924,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C61">
         <v>0.6</v>
@@ -1938,13 +1941,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C62">
         <v>0.28</v>
       </c>
       <c r="D62">
-        <v>700</v>
+        <v>130</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1955,7 +1958,7 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1972,7 +1975,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C64">
         <v>10</v>
@@ -1989,7 +1992,7 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C65">
         <v>2.6</v>
@@ -2006,7 +2009,7 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C66">
         <v>0.146</v>
@@ -2023,7 +2026,7 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C67">
         <v>1.2</v>
@@ -2040,13 +2043,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C68">
         <v>0.12</v>
       </c>
       <c r="D68">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2057,7 +2060,7 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C69">
         <v>0.15</v>
@@ -2074,7 +2077,7 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C70">
         <v>0.5</v>
@@ -2091,7 +2094,7 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C71">
         <v>1.96</v>
@@ -2108,7 +2111,7 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C72">
         <v>0.15</v>
@@ -2125,7 +2128,7 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C73">
         <v>1.2</v>
@@ -2142,7 +2145,7 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C74">
         <v>0.4</v>
@@ -2159,7 +2162,7 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C75">
         <v>0.3</v>
@@ -2176,7 +2179,7 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C76">
         <v>1.22</v>
@@ -2193,7 +2196,7 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C77">
         <v>0.1176470588235294</v>
@@ -2210,7 +2213,7 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C78">
         <v>0.96</v>
@@ -2227,7 +2230,7 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C79">
         <v>0.13</v>
@@ -2244,7 +2247,7 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -2261,7 +2264,7 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C81">
         <v>0.3</v>
@@ -2278,7 +2281,7 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C82">
         <v>10</v>
@@ -2295,7 +2298,7 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C83">
         <v>369</v>
@@ -2312,7 +2315,7 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C84">
         <v>0.2</v>
@@ -2329,7 +2332,7 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -2346,7 +2349,7 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C86">
         <v>14</v>
@@ -2363,7 +2366,7 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C87">
         <v>0.8333333333333334</v>
@@ -2380,7 +2383,7 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C88">
         <v>0.041</v>
@@ -2397,7 +2400,7 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C89">
         <v>1.1</v>
@@ -2414,7 +2417,7 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C90">
         <v>200</v>
@@ -2431,7 +2434,7 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C91">
         <v>0.5</v>
@@ -2448,7 +2451,7 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C92">
         <v>0.12</v>
@@ -2465,7 +2468,7 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C93">
         <v>0.15</v>
@@ -2482,7 +2485,7 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C94">
         <v>0.7142857142857143</v>
@@ -2499,7 +2502,7 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C95">
         <v>0.056</v>
@@ -2516,7 +2519,7 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C96">
         <v>35</v>
@@ -2533,7 +2536,7 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C97">
         <v>0.15</v>
@@ -2550,7 +2553,7 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C98">
         <v>300</v>
@@ -2567,13 +2570,13 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C99">
         <v>0.21</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2584,7 +2587,7 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C100">
         <v>0.1647058823529412</v>
@@ -2601,7 +2604,7 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C101">
         <v>0.3</v>
@@ -2618,7 +2621,7 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C102">
         <v>0.25</v>
@@ -2635,7 +2638,7 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C103">
         <v>0.85</v>
@@ -2652,7 +2655,7 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C104">
         <v>0.7</v>
@@ -2669,13 +2672,13 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C105">
         <v>0.05</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2686,7 +2689,7 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2703,7 +2706,7 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C107">
         <v>2.5</v>
@@ -2720,7 +2723,7 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C108">
         <v>0.1176470588235294</v>
@@ -2737,7 +2740,7 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C109">
         <v>0.54</v>
@@ -2754,7 +2757,7 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C110">
         <v>0.26</v>
@@ -2771,7 +2774,7 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C111">
         <v>0.12</v>
@@ -2788,7 +2791,7 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C112">
         <v>0.2</v>
@@ -2805,7 +2808,7 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -2822,7 +2825,7 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C114">
         <v>0.3</v>
@@ -2839,7 +2842,7 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C115">
         <v>200</v>
@@ -2856,7 +2859,7 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C116">
         <v>0.4</v>
@@ -2873,13 +2876,13 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C117">
         <v>0.03</v>
       </c>
       <c r="D117">
-        <v>9000</v>
+        <v>7950</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -2890,7 +2893,7 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C118">
         <v>0.3</v>
@@ -2907,7 +2910,7 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C119">
         <v>0.7</v>
@@ -2924,7 +2927,7 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C120">
         <v>0.3</v>
@@ -2941,13 +2944,13 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C121">
         <v>0.1411764705882353</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2958,7 +2961,7 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C122">
         <v>0.11</v>
@@ -2975,7 +2978,7 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -2992,7 +2995,7 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C124">
         <v>0.13</v>
@@ -3009,7 +3012,7 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C125">
         <v>0.7142857142857143</v>
@@ -3026,7 +3029,7 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C126">
         <v>2.6</v>
@@ -3043,7 +3046,7 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C127">
         <v>0.027</v>
@@ -3060,7 +3063,7 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C128">
         <v>8</v>
@@ -3077,7 +3080,7 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C129">
         <v>0.16</v>
@@ -3094,7 +3097,7 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C130">
         <v>15</v>
@@ -3111,7 +3114,7 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3128,7 +3131,7 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C132">
         <v>0.58</v>
@@ -3145,7 +3148,7 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C133">
         <v>3.5</v>
@@ -3162,7 +3165,7 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C134">
         <v>0.0266666666666667</v>
@@ -3179,7 +3182,7 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C135">
         <v>0.1494117647058824</v>
@@ -3196,13 +3199,13 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C136">
         <v>0.12</v>
       </c>
       <c r="D136">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3213,7 +3216,7 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C137">
         <v>0.043</v>
@@ -3230,7 +3233,7 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C138">
         <v>2.333333333333333</v>
@@ -3247,7 +3250,7 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C139">
         <v>0.7</v>
@@ -3264,7 +3267,7 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C140">
         <v>200</v>
@@ -3281,7 +3284,7 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C141">
         <v>0.045</v>
@@ -3298,7 +3301,7 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C142">
         <v>0.098</v>
@@ -3315,7 +3318,7 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C143">
         <v>18</v>
@@ -3332,7 +3335,7 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C144">
         <v>0.05</v>
@@ -3349,7 +3352,7 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C145">
         <v>0.075</v>
@@ -3366,7 +3369,7 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C146">
         <v>0.1176470588235294</v>
@@ -3383,7 +3386,7 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C147">
         <v>0.07000000000000001</v>
@@ -3400,7 +3403,7 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C148">
         <v>0.4</v>
@@ -3417,7 +3420,7 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C149">
         <v>250</v>
@@ -3434,7 +3437,7 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C150">
         <v>0.12</v>
@@ -3451,7 +3454,7 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C151">
         <v>0.04615384615384616</v>
@@ -3468,13 +3471,13 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C152">
         <v>0.001</v>
       </c>
       <c r="D152">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -3485,7 +3488,7 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C153">
         <v>0.3</v>
@@ -3502,7 +3505,7 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C154">
         <v>1.2</v>
@@ -3519,7 +3522,7 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C155">
         <v>0.063</v>
@@ -3536,7 +3539,7 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C156">
         <v>0.4</v>
@@ -3553,7 +3556,7 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C157">
         <v>2.107142857142857</v>
@@ -3570,7 +3573,7 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C158">
         <v>0.495</v>
@@ -3587,7 +3590,7 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C159">
         <v>0.4</v>
@@ -3604,7 +3607,7 @@
         <v>121</v>
       </c>
       <c r="B160" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C160">
         <v>0.4</v>
@@ -3621,13 +3624,13 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C161">
         <v>0.068</v>
       </c>
       <c r="D161">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -3638,7 +3641,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C162">
         <v>0.081</v>
@@ -3655,7 +3658,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C163">
         <v>0.17</v>
@@ -3672,7 +3675,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C164">
         <v>57.7</v>
@@ -3689,7 +3692,7 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C165">
         <v>49.75</v>
@@ -3706,7 +3709,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C166">
         <v>36.36</v>
@@ -3715,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3723,7 +3726,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C167">
         <v>10.29</v>
@@ -3732,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3740,7 +3743,7 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C168">
         <v>14.58</v>
@@ -3757,7 +3760,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C169">
         <v>0.21</v>
@@ -3766,6 +3769,23 @@
         <v>1000</v>
       </c>
       <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s">
+        <v>172</v>
+      </c>
+      <c r="C170">
+        <v>0.3</v>
+      </c>
+      <c r="D170">
+        <v>30</v>
+      </c>
+      <c r="E170">
         <v>0</v>
       </c>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="179">
   <si>
     <t>Product</t>
   </si>
@@ -530,6 +530,21 @@
   </si>
   <si>
     <t>Kismis</t>
+  </si>
+  <si>
+    <t>Ajwain</t>
+  </si>
+  <si>
+    <t>Double Dream Whiped Cream</t>
+  </si>
+  <si>
+    <t>XXXL steam Basmati Rice</t>
+  </si>
+  <si>
+    <t>Super White Sella Basmati Rice</t>
+  </si>
+  <si>
+    <t>Gochujang</t>
   </si>
   <si>
     <t>gm</t>
@@ -893,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -938,13 +953,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C3">
         <v>0.8</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -955,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C4">
         <v>0.25</v>
@@ -972,7 +987,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C5">
         <v>0.1</v>
@@ -989,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C6">
         <v>4.35</v>
@@ -1006,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C7">
         <v>0.25</v>
@@ -1015,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1023,13 +1038,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C8">
         <v>0.75</v>
       </c>
       <c r="D8">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1040,13 +1055,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C9">
         <v>0.75</v>
       </c>
       <c r="D9">
-        <v>-52</v>
+        <v>210</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1057,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C10">
         <v>0.07000000000000001</v>
@@ -1074,7 +1089,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C11">
         <v>300</v>
@@ -1091,7 +1106,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1108,13 +1123,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C13">
         <v>0.58</v>
       </c>
       <c r="D13">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1125,7 +1140,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C14">
         <v>0.58</v>
@@ -1142,7 +1157,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C15">
         <v>200</v>
@@ -1159,7 +1174,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C16">
         <v>0.08</v>
@@ -1176,7 +1191,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C17">
         <v>0.2</v>
@@ -1193,7 +1208,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C18">
         <v>0.08</v>
@@ -1210,7 +1225,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C19">
         <v>0.75</v>
@@ -1227,7 +1242,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C20">
         <v>0.225</v>
@@ -1244,7 +1259,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C21">
         <v>0.25</v>
@@ -1261,13 +1276,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C22">
         <v>0.85</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1278,7 +1293,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -1295,7 +1310,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C24">
         <v>0.25</v>
@@ -1312,7 +1327,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C25">
         <v>0.28</v>
@@ -1329,7 +1344,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C26">
         <v>0.25</v>
@@ -1346,7 +1361,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C27">
         <v>15</v>
@@ -1363,7 +1378,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C28">
         <v>0.22</v>
@@ -1380,7 +1395,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C29">
         <v>0.26</v>
@@ -1397,7 +1412,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C30">
         <v>0.12</v>
@@ -1414,7 +1429,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C31">
         <v>0.3</v>
@@ -1431,7 +1446,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C32">
         <v>0.15</v>
@@ -1448,7 +1463,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C33">
         <v>0.35</v>
@@ -1465,7 +1480,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C34">
         <v>0.75</v>
@@ -1482,7 +1497,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C35">
         <v>210</v>
@@ -1499,7 +1514,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C36">
         <v>0.8</v>
@@ -1508,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1516,7 +1531,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C37">
         <v>0.25</v>
@@ -1525,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>100</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1533,7 +1548,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C38">
         <v>0.7</v>
@@ -1550,7 +1565,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C39">
         <v>0.15</v>
@@ -1567,13 +1582,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C40">
         <v>0.5</v>
       </c>
       <c r="D40">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1584,7 +1599,7 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C41">
         <v>0.2</v>
@@ -1601,13 +1616,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C42">
         <v>0.07000000000000001</v>
       </c>
       <c r="D42">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1618,7 +1633,7 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C43">
         <v>1.55</v>
@@ -1635,7 +1650,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C44">
         <v>0.1</v>
@@ -1652,7 +1667,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C45">
         <v>0.15</v>
@@ -1669,13 +1684,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C46">
         <v>0.12</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>17745</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1686,7 +1701,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1703,7 +1718,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C48">
         <v>0.075</v>
@@ -1720,13 +1735,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C49">
         <v>0.15</v>
       </c>
       <c r="D49">
-        <v>574</v>
+        <v>5544</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1737,7 +1752,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -1746,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1754,7 +1769,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C51">
         <v>0.3333333333333333</v>
@@ -1771,7 +1786,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C52">
         <v>0.72</v>
@@ -1788,7 +1803,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C53">
         <v>0.15</v>
@@ -1805,7 +1820,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C54">
         <v>0.16</v>
@@ -1822,7 +1837,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C55">
         <v>0.05</v>
@@ -1839,7 +1854,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C56">
         <v>0.272</v>
@@ -1856,13 +1871,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C57">
         <v>0.28</v>
       </c>
       <c r="D57">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1873,13 +1888,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1890,7 +1905,7 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C59">
         <v>1100</v>
@@ -1907,7 +1922,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C60">
         <v>1800</v>
@@ -1924,13 +1939,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C61">
         <v>0.6</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1941,13 +1956,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C62">
         <v>0.28</v>
       </c>
       <c r="D62">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1958,13 +1973,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1975,7 +1990,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C64">
         <v>10</v>
@@ -1992,7 +2007,7 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C65">
         <v>2.6</v>
@@ -2009,7 +2024,7 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C66">
         <v>0.146</v>
@@ -2026,13 +2041,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C67">
         <v>1.2</v>
       </c>
       <c r="D67">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2043,13 +2058,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C68">
         <v>0.12</v>
       </c>
       <c r="D68">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2060,13 +2075,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C69">
         <v>0.15</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2077,7 +2092,7 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C70">
         <v>0.5</v>
@@ -2094,7 +2109,7 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C71">
         <v>1.96</v>
@@ -2111,7 +2126,7 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C72">
         <v>0.15</v>
@@ -2128,13 +2143,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C73">
         <v>1.2</v>
       </c>
       <c r="D73">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2145,13 +2160,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C74">
         <v>0.4</v>
       </c>
       <c r="D74">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2162,7 +2177,7 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C75">
         <v>0.3</v>
@@ -2179,13 +2194,13 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C76">
         <v>1.22</v>
       </c>
       <c r="D76">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2196,7 +2211,7 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C77">
         <v>0.1176470588235294</v>
@@ -2213,7 +2228,7 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C78">
         <v>0.96</v>
@@ -2230,13 +2245,13 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C79">
         <v>0.13</v>
       </c>
       <c r="D79">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2247,7 +2262,7 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -2264,7 +2279,7 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C81">
         <v>0.3</v>
@@ -2281,7 +2296,7 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C82">
         <v>10</v>
@@ -2298,7 +2313,7 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C83">
         <v>369</v>
@@ -2315,7 +2330,7 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C84">
         <v>0.2</v>
@@ -2332,13 +2347,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2349,7 +2364,7 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C86">
         <v>14</v>
@@ -2366,13 +2381,13 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C87">
         <v>0.8333333333333334</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2383,7 +2398,7 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C88">
         <v>0.041</v>
@@ -2400,7 +2415,7 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C89">
         <v>1.1</v>
@@ -2417,7 +2432,7 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C90">
         <v>200</v>
@@ -2434,7 +2449,7 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C91">
         <v>0.5</v>
@@ -2451,7 +2466,7 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C92">
         <v>0.12</v>
@@ -2468,13 +2483,13 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C93">
         <v>0.15</v>
       </c>
       <c r="D93">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2485,13 +2500,13 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C94">
         <v>0.7142857142857143</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2502,7 +2517,7 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C95">
         <v>0.056</v>
@@ -2519,7 +2534,7 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C96">
         <v>35</v>
@@ -2536,7 +2551,7 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C97">
         <v>0.15</v>
@@ -2553,7 +2568,7 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C98">
         <v>300</v>
@@ -2570,13 +2585,13 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C99">
         <v>0.21</v>
       </c>
       <c r="D99">
-        <v>200</v>
+        <v>2160</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2587,7 +2602,7 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C100">
         <v>0.1647058823529412</v>
@@ -2604,7 +2619,7 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C101">
         <v>0.3</v>
@@ -2621,7 +2636,7 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C102">
         <v>0.25</v>
@@ -2638,7 +2653,7 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C103">
         <v>0.85</v>
@@ -2655,13 +2670,13 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C104">
         <v>0.7</v>
       </c>
       <c r="D104">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2672,13 +2687,13 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C105">
         <v>0.05</v>
       </c>
       <c r="D105">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2689,13 +2704,13 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2706,13 +2721,13 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C107">
         <v>2.5</v>
       </c>
       <c r="D107">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2723,13 +2738,13 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C108">
         <v>0.1176470588235294</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2740,7 +2755,7 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C109">
         <v>0.54</v>
@@ -2757,7 +2772,7 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C110">
         <v>0.26</v>
@@ -2774,7 +2789,7 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C111">
         <v>0.12</v>
@@ -2791,13 +2806,13 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C112">
         <v>0.2</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -2808,7 +2823,7 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -2825,13 +2840,13 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C114">
         <v>0.3</v>
       </c>
       <c r="D114">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -2842,7 +2857,7 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C115">
         <v>200</v>
@@ -2859,7 +2874,7 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C116">
         <v>0.4</v>
@@ -2876,13 +2891,13 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C117">
         <v>0.03</v>
       </c>
       <c r="D117">
-        <v>7950</v>
+        <v>4850</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -2893,13 +2908,13 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C118">
         <v>0.3</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2910,13 +2925,13 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C119">
         <v>0.7</v>
       </c>
       <c r="D119">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2927,7 +2942,7 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C120">
         <v>0.3</v>
@@ -2944,13 +2959,13 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C121">
         <v>0.1411764705882353</v>
       </c>
       <c r="D121">
-        <v>500</v>
+        <v>10200</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2961,7 +2976,7 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C122">
         <v>0.11</v>
@@ -2978,7 +2993,7 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -2995,13 +3010,13 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C124">
         <v>0.13</v>
       </c>
       <c r="D124">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -3012,13 +3027,13 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C125">
         <v>0.7142857142857143</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -3029,13 +3044,13 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C126">
         <v>2.6</v>
       </c>
       <c r="D126">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -3046,13 +3061,13 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C127">
         <v>0.027</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -3063,7 +3078,7 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C128">
         <v>8</v>
@@ -3080,7 +3095,7 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C129">
         <v>0.16</v>
@@ -3097,7 +3112,7 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C130">
         <v>15</v>
@@ -3114,7 +3129,7 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3131,7 +3146,7 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C132">
         <v>0.58</v>
@@ -3148,13 +3163,13 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C133">
         <v>3.5</v>
       </c>
       <c r="D133">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3165,13 +3180,13 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C134">
         <v>0.0266666666666667</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3182,13 +3197,13 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C135">
         <v>0.1494117647058824</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3199,7 +3214,7 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C136">
         <v>0.12</v>
@@ -3216,7 +3231,7 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C137">
         <v>0.043</v>
@@ -3233,7 +3248,7 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C138">
         <v>2.333333333333333</v>
@@ -3242,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3250,7 +3265,7 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C139">
         <v>0.7</v>
@@ -3267,7 +3282,7 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C140">
         <v>200</v>
@@ -3284,7 +3299,7 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C141">
         <v>0.045</v>
@@ -3301,7 +3316,7 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C142">
         <v>0.098</v>
@@ -3318,7 +3333,7 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C143">
         <v>18</v>
@@ -3335,7 +3350,7 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C144">
         <v>0.05</v>
@@ -3352,13 +3367,13 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C145">
         <v>0.075</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -3369,7 +3384,7 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C146">
         <v>0.1176470588235294</v>
@@ -3386,13 +3401,13 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C147">
         <v>0.07000000000000001</v>
       </c>
       <c r="D147">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -3403,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C148">
         <v>0.4</v>
       </c>
       <c r="D148">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -3420,7 +3435,7 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C149">
         <v>250</v>
@@ -3437,7 +3452,7 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C150">
         <v>0.12</v>
@@ -3454,13 +3469,13 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C151">
         <v>0.04615384615384616</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -3471,7 +3486,7 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C152">
         <v>0.001</v>
@@ -3488,13 +3503,13 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C153">
         <v>0.3</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -3505,13 +3520,13 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C154">
         <v>1.2</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -3522,7 +3537,7 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C155">
         <v>0.063</v>
@@ -3539,7 +3554,7 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C156">
         <v>0.4</v>
@@ -3556,7 +3571,7 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C157">
         <v>2.107142857142857</v>
@@ -3573,7 +3588,7 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C158">
         <v>0.495</v>
@@ -3590,7 +3605,7 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C159">
         <v>0.4</v>
@@ -3607,7 +3622,7 @@
         <v>121</v>
       </c>
       <c r="B160" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C160">
         <v>0.4</v>
@@ -3624,7 +3639,7 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C161">
         <v>0.068</v>
@@ -3641,13 +3656,13 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C162">
         <v>0.081</v>
       </c>
       <c r="D162">
-        <v>5252</v>
+        <v>5102</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -3658,13 +3673,13 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C163">
         <v>0.17</v>
       </c>
       <c r="D163">
-        <v>13076</v>
+        <v>12000</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -3675,7 +3690,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C164">
         <v>57.7</v>
@@ -3692,7 +3707,7 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C165">
         <v>49.75</v>
@@ -3701,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3709,7 +3724,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C166">
         <v>36.36</v>
@@ -3726,7 +3741,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C167">
         <v>10.29</v>
@@ -3743,7 +3758,7 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C168">
         <v>14.58</v>
@@ -3752,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3760,7 +3775,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C169">
         <v>0.21</v>
@@ -3777,7 +3792,7 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C170">
         <v>0.3</v>
@@ -3786,6 +3801,91 @@
         <v>30</v>
       </c>
       <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>177</v>
+      </c>
+      <c r="C171">
+        <v>0.6</v>
+      </c>
+      <c r="D171">
+        <v>100</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>177</v>
+      </c>
+      <c r="C172">
+        <v>0.175</v>
+      </c>
+      <c r="D172">
+        <v>1000</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>177</v>
+      </c>
+      <c r="C173">
+        <v>0.09</v>
+      </c>
+      <c r="D173">
+        <v>25900</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" t="s">
+        <v>177</v>
+      </c>
+      <c r="C174">
+        <v>0.077</v>
+      </c>
+      <c r="D174">
+        <v>25900</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s">
+        <v>177</v>
+      </c>
+      <c r="C175">
+        <v>0.88</v>
+      </c>
+      <c r="D175">
+        <v>500</v>
+      </c>
+      <c r="E175">
         <v>0</v>
       </c>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Raw_Material_List.xlsx
@@ -1044,7 +1044,7 @@
         <v>0.75</v>
       </c>
       <c r="D8">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0.25</v>
       </c>
       <c r="D26">
-        <v>4400</v>
+        <v>1500</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0.12</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>98.5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1571,7 +1571,7 @@
         <v>0.15</v>
       </c>
       <c r="D39">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0.5</v>
       </c>
       <c r="D40">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="D42">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0.12</v>
       </c>
       <c r="D46">
-        <v>17745</v>
+        <v>16967</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0.15</v>
       </c>
       <c r="D49">
-        <v>5544</v>
+        <v>4794</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1877,7 +1877,7 @@
         <v>0.28</v>
       </c>
       <c r="D57">
-        <v>650</v>
+        <v>90</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0.28</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>1.2</v>
       </c>
       <c r="D67">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0.12</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>1.2</v>
       </c>
       <c r="D73">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>1.22</v>
       </c>
       <c r="D76">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2353,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="D85">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0.21</v>
       </c>
       <c r="D99">
-        <v>2160</v>
+        <v>1000</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0.7</v>
       </c>
       <c r="D104">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0.05</v>
       </c>
       <c r="D105">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>2.5</v>
       </c>
       <c r="D107">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="D108">
-        <v>15000</v>
+        <v>14850</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0.3</v>
       </c>
       <c r="D114">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0.03</v>
       </c>
       <c r="D117">
-        <v>4850</v>
+        <v>1000</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0.7</v>
       </c>
       <c r="D119">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0.1411764705882353</v>
       </c>
       <c r="D121">
-        <v>10200</v>
+        <v>2137</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>2.6</v>
       </c>
       <c r="D126">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         <v>0.027</v>
       </c>
       <c r="D127">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>3.5</v>
       </c>
       <c r="D133">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3373,7 +3373,7 @@
         <v>0.075</v>
       </c>
       <c r="D145">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0.4</v>
       </c>
       <c r="D148">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0.04615384615384616</v>
       </c>
       <c r="D151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0.17</v>
       </c>
       <c r="D163">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3849,7 +3849,7 @@
         <v>0.09</v>
       </c>
       <c r="D173">
-        <v>25900</v>
+        <v>22296</v>
       </c>
       <c r="E173">
         <v>0</v>
